--- a/pln/horaxhora.xlsx
+++ b/pln/horaxhora.xlsx
@@ -925,7 +925,7 @@
       </c>
       <c r="B7" s="18" t="n"/>
       <c r="C7" s="46" t="n">
-        <v>5706.492276</v>
+        <v>4521.276807</v>
       </c>
       <c r="D7" s="18" t="n"/>
       <c r="E7" s="46" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B8" s="18" t="n"/>
       <c r="C8" s="48" t="n">
-        <v>4789.079349</v>
+        <v>4375.120378</v>
       </c>
       <c r="D8" s="18" t="n"/>
       <c r="E8" s="48" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="B9" s="18" t="n"/>
       <c r="C9" s="50" t="n">
-        <v>7089.27927</v>
+        <v>4238.141971</v>
       </c>
       <c r="D9" s="18" t="n"/>
       <c r="E9" s="50" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="B10" s="18" t="n"/>
       <c r="C10" s="52" t="n">
-        <v>83701.75752</v>
+        <v>56860.12666</v>
       </c>
       <c r="D10" s="18" t="n"/>
       <c r="E10" s="52" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B11" s="18" t="n"/>
       <c r="C11" s="48" t="n">
-        <v>14112.27334</v>
+        <v>11343.1008</v>
       </c>
       <c r="D11" s="18" t="n"/>
       <c r="E11" s="48" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B12" s="18" t="n"/>
       <c r="C12" s="54" t="n">
-        <v>40083.16398</v>
+        <v>40411.79905</v>
       </c>
       <c r="D12" s="18" t="n"/>
       <c r="E12" s="54" t="n">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B13" s="18" t="n"/>
       <c r="C13" s="56" t="n">
-        <v>4420.192909</v>
+        <v>2254.621253</v>
       </c>
       <c r="D13" s="18" t="n"/>
       <c r="E13" s="56" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B14" s="18" t="n"/>
       <c r="C14" s="48" t="n">
-        <v>1074.562537</v>
+        <v>542.1714304</v>
       </c>
       <c r="D14" s="18" t="n"/>
       <c r="E14" s="48" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B15" s="18" t="n"/>
       <c r="C15" s="58" t="n">
-        <v>607.3783107</v>
+        <v>583.5923732</v>
       </c>
       <c r="D15" s="18" t="n"/>
       <c r="E15" s="58" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B16" s="18" t="n"/>
       <c r="C16" s="60" t="n">
-        <v>2533.541522</v>
+        <v>1275.417621</v>
       </c>
       <c r="D16" s="18" t="n"/>
       <c r="E16" s="60" t="n">
